--- a/src/VehicleTaxReport/VehicleTaxReport.xlsx
+++ b/src/VehicleTaxReport/VehicleTaxReport.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wanamicsfr-my.sharepoint.com/personal/cwatrelot_wanamics_fr/Documents/AL/WanaFrance/src/VehicleTaxReport/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="207" documentId="13_ncr:1_{771DC25A-BB0C-4C18-8158-9411850FC94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7C97898-A2F1-433C-B055-CA58FF854071}"/>
+  <xr:revisionPtr revIDLastSave="299" documentId="13_ncr:1_{771DC25A-BB0C-4C18-8158-9411850FC94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D0E6F64-13B7-42AD-B822-620072D65F10}"/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="-16320" windowWidth="29040" windowHeight="16440" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4335" yWindow="-16320" windowWidth="29040" windowHeight="16440" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="7" state="hidden" r:id="rId1"/>
     <sheet name="Report Metadata" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="Barême CO2" sheetId="6" state="hidden" r:id="rId3"/>
-    <sheet name="2857-FC-SD" sheetId="4" r:id="rId4"/>
-    <sheet name="2858-FC-SD" sheetId="5" r:id="rId5"/>
+    <sheet name="Coef. pondérateur" sheetId="9" state="hidden" r:id="rId4"/>
+    <sheet name="Barème ancienneté" sheetId="8" state="hidden" r:id="rId5"/>
+    <sheet name="2857-FC-SD" sheetId="4" r:id="rId6"/>
+    <sheet name="2858-FC-SD" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="95">
   <si>
     <t>No</t>
   </si>
@@ -336,6 +338,27 @@
   <si>
     <t>TaxEndingDate</t>
   </si>
+  <si>
+    <t>Tarif gazole et assimilé</t>
+  </si>
+  <si>
+    <t>Tarif autre</t>
+  </si>
+  <si>
+    <t>Nb. Km remboursés</t>
+  </si>
+  <si>
+    <t>% taxe à reverser</t>
+  </si>
+  <si>
+    <t>Gazole</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>Année 1ère immat. (à partir de)</t>
+  </si>
 </sst>
 </file>
 
@@ -344,9 +367,16 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -557,179 +587,183 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="18" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -2053,7 +2087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897751AA-AEC8-42DA-90B9-E3EF87E570E1}">
   <dimension ref="A1:D250"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
@@ -4078,13 +4112,154 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB357A07-4FA6-4D6C-A605-BA47CF4CA816}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>15001</v>
+      </c>
+      <c r="B3" s="59">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>25001</v>
+      </c>
+      <c r="B4" s="59">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>35001</v>
+      </c>
+      <c r="B5" s="59">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>45001</v>
+      </c>
+      <c r="B6" s="59">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96CCDB01-AF5C-4F21-AA21-891EBF3E0C4F}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" s="52" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>600</v>
+      </c>
+      <c r="C2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2001</v>
+      </c>
+      <c r="B3">
+        <v>400</v>
+      </c>
+      <c r="C3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="62">
+        <v>2006</v>
+      </c>
+      <c r="B4">
+        <v>300</v>
+      </c>
+      <c r="C4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2011</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2015</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30845292-5431-4A4E-B0C6-18BCB618A099}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+    <sheetView showZeros="0" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -4393,12 +4568,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3965F3-D149-4451-A68D-3862368B16E1}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4542,6 +4717,30 @@
         <v>37</v>
       </c>
     </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B5" s="60">
+        <v>40544</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="2">
+        <f>IF(D5="Gazole",_xlfn.XLOOKUP(YEAR(B5),'Barème ancienneté'!A:A,'Barème ancienneté'!B:B,0,-1),_xlfn.XLOOKUP(YEAR(B5),'Barème ancienneté'!A:A,'Barème ancienneté'!C:C,0,-1))</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B6" s="60">
+        <v>43831</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="2">
+        <f>IF(D6="Gazole",_xlfn.XLOOKUP(YEAR(B6),'Barème ancienneté'!A:A,'Barème ancienneté'!B:B,0,-1),_xlfn.XLOOKUP(YEAR(B6),'Barème ancienneté'!A:A,'Barème ancienneté'!C:C,0,-1))</f>
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:O1"/>

--- a/src/VehicleTaxReport/VehicleTaxReport.xlsx
+++ b/src/VehicleTaxReport/VehicleTaxReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wanamicsfr-my.sharepoint.com/personal/cwatrelot_wanamics_fr/Documents/AL/WanaFrance/src/VehicleTaxReport/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="299" documentId="13_ncr:1_{771DC25A-BB0C-4C18-8158-9411850FC94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D0E6F64-13B7-42AD-B822-620072D65F10}"/>
+  <xr:revisionPtr revIDLastSave="508" documentId="13_ncr:1_{771DC25A-BB0C-4C18-8158-9411850FC94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4450B6FB-9787-42AB-8ACD-FF01CCE1ED85}"/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="-16320" windowWidth="29040" windowHeight="16440" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="7" state="hidden" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="95">
   <si>
     <t>No</t>
   </si>
@@ -244,36 +244,13 @@
     <t>NUMÉRO d'immatriculation des véhicules</t>
   </si>
   <si>
-    <t>Prise en charge par l’entreprise des frais engagés par les salariés ou dirigeants uniquement lors de l’utilisation de leurs véhicules personnels (Rubrique à ne servir que pour les véhicules remplissant cette condition)</t>
-  </si>
-  <si>
     <t>Durée d’affectation durant l’année civile</t>
   </si>
   <si>
     <t>Période d'affectation</t>
   </si>
   <si>
-    <r>
-      <t>I</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bis</t>
-    </r>
-  </si>
-  <si>
     <t>Catégorie</t>
-  </si>
-  <si>
-    <t>FICHE D’AIDE AU CALCUL DE LA TAXE ANNUELLE SUR L’ANCIENNETÉ DES VÉHICULES DE TOURISME
-Pour la période allant du 1er janvier au 31 décembre 2022</t>
   </si>
   <si>
     <t>Durée d’affectation 
@@ -287,15 +264,6 @@
   </si>
   <si>
     <t>Source :</t>
-  </si>
-  <si>
-    <t>Émissions
-de CO2
-(g/ km)</t>
-  </si>
-  <si>
-    <t>Tarif annuel
-(€)</t>
   </si>
   <si>
     <t>Prise en charge par l’entreprise des frais engagés par les salariés ou dirigeants uniquement lors de l’utilisation de leurs véhicules personnels</t>
@@ -318,9 +286,6 @@
     </r>
   </si>
   <si>
-    <t>Période</t>
-  </si>
-  <si>
     <t>Société</t>
   </si>
   <si>
@@ -351,13 +316,45 @@
     <t>% taxe à reverser</t>
   </si>
   <si>
-    <t>Gazole</t>
-  </si>
-  <si>
-    <t>Autre</t>
-  </si>
-  <si>
     <t>Année 1ère immat. (à partir de)</t>
+  </si>
+  <si>
+    <t>FICHE D’AIDE AU CALCUL DE LA TAXE ANNUELLE SUR L’ANCIENNETÉ DES VÉHICULES DE TOURISME</t>
+  </si>
+  <si>
+    <t>Émissions de CO2 (g/ km)</t>
+  </si>
+  <si>
+    <t>Tarif annuel (€)</t>
+  </si>
+  <si>
+    <t>2857-FC-SD</t>
+  </si>
+  <si>
+    <t>2858-FC-SD</t>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bis</t>
+    </r>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Année</t>
   </si>
 </sst>
 </file>
@@ -367,9 +364,30 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -411,14 +429,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -433,18 +443,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -497,6 +495,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -504,7 +520,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -520,18 +536,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF5C75A2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEEEEE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5F5F5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,183 +591,204 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="20" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="18" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -772,7 +797,35 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{DCB8B7C4-3CE9-493C-89FE-D1354B8363D3}"/>
     <cellStyle name="Pourcentage" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="74">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF5C75A2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -784,7 +837,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="7"/>
         <color rgb="FFFFFFFF"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -799,23 +852,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -834,6 +871,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -843,16 +881,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -871,6 +900,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -880,16 +910,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <font>
@@ -908,6 +929,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -917,17 +939,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -955,16 +967,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -992,16 +995,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1020,6 +1014,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1030,19 +1025,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1058,6 +1040,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1068,19 +1051,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1096,6 +1066,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1105,17 +1076,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1134,6 +1096,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1144,19 +1107,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1172,6 +1122,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1182,16 +1133,22 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1210,7 +1167,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1221,16 +1178,23 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1249,6 +1213,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1259,16 +1224,23 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1287,6 +1259,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1297,16 +1270,115 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF5C75A2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1343,7 +1415,355 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF5C75A2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF5C75A2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF5C75A2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF5C75A2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF5C75A2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF5C75A2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF5C75A2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF5C75A2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF5C75A2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1382,14 +1802,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1417,6 +1831,167 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF5C75A2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF5C75A2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF5C75A2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF5C75A2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color indexed="64"/>
@@ -1460,6 +2035,69 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF5F5F5"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF5F5F5"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1501,10 +2139,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A1E586AA-A18B-4831-BD17-998ECA19B2B4}" name="Data" displayName="Data" ref="A1:P2" insertRow="1" totalsRowShown="0" headerRowDxfId="37">
-  <autoFilter ref="A1:P2" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
-  <tableColumns count="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A1E586AA-A18B-4831-BD17-998ECA19B2B4}" name="Data" displayName="Data" ref="A1:Q2" insertRow="1" totalsRowShown="0" headerRowDxfId="73">
+  <autoFilter ref="A1:Q2" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
+  <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{A4BD92ED-6326-4209-AA30-0213D43EC72E}" name="CompanyName"/>
+    <tableColumn id="17" xr3:uid="{532C4DFD-2510-4C03-A768-D879A427D0F1}" name="Year"/>
     <tableColumn id="2" xr3:uid="{A18BDC1D-A812-450B-AC7A-0F0F78193783}" name="No"/>
     <tableColumn id="3" xr3:uid="{48E46A4F-5045-47BD-B71D-111D8D09EA21}" name="Description"/>
     <tableColumn id="4" xr3:uid="{AC8884FB-2613-42EB-9B77-04E4F38D73B0}" name="ProfessionalTax"/>
@@ -1526,49 +2165,130 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7BB07D74-2E94-4A9E-8762-CD2D69DD2E52}" name="Tableau3" displayName="Tableau3" ref="A4:P7" totalsRowCount="1" headerRowDxfId="36" dataDxfId="34" totalsRowDxfId="32" headerRowBorderDxfId="35" tableBorderDxfId="33" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CA577236-93A7-486B-917B-AA439C2A0D4E}" name="Tableau6" displayName="Tableau6" ref="A1:B250" totalsRowShown="0" headerRowDxfId="72">
+  <autoFilter ref="A1:B250" xr:uid="{CA577236-93A7-486B-917B-AA439C2A0D4E}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{F15D567D-F74E-4B55-B0E1-088587DF31D9}" name="Émissions de CO2 (g/ km)" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{1409884C-98CC-4037-BAF2-580DDE4DEBC9}" name="Tarif annuel (€)" dataDxfId="70"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FD95BC5E-144E-4F13-9032-9ECB61F56FC3}" name="Tableau4" displayName="Tableau4" ref="A1:B6" totalsRowShown="0" headerRowDxfId="69">
+  <autoFilter ref="A1:B6" xr:uid="{FD95BC5E-144E-4F13-9032-9ECB61F56FC3}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{4DD66332-7083-4AB3-BB08-7E872C441A10}" name="Nb. Km remboursés"/>
+    <tableColumn id="2" xr3:uid="{C935D037-E00B-4231-B611-948F3882AD6E}" name="% taxe à reverser" dataDxfId="68"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6053761E-5406-40E2-8781-C060F254D8A0}" name="Tableau5" displayName="Tableau5" ref="A1:C6" totalsRowShown="0" headerRowDxfId="67">
+  <autoFilter ref="A1:C6" xr:uid="{6053761E-5406-40E2-8781-C060F254D8A0}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8A0AF041-C453-4E4D-A169-8F4638B4E3C0}" name="Année 1ère immat. (à partir de)"/>
+    <tableColumn id="2" xr3:uid="{E5484DEB-F5FC-46AD-A66C-27345CBF68EE}" name="Tarif gazole et assimilé"/>
+    <tableColumn id="3" xr3:uid="{5904896B-E55F-4389-BB1D-8B38E51619E5}" name="Tarif autre"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7BB07D74-2E94-4A9E-8762-CD2D69DD2E52}" name="Tableau3" displayName="Tableau3" ref="A4:P7" totalsRowCount="1" headerRowDxfId="66" dataDxfId="64" totalsRowDxfId="62" headerRowBorderDxfId="65" tableBorderDxfId="63" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="A4:P6" xr:uid="{7BB07D74-2E94-4A9E-8762-CD2D69DD2E52}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{7BB99893-51EB-4A10-9557-6750F01263C0}" name="A" dataDxfId="31" totalsRowDxfId="30">
-      <calculatedColumnFormula>Data!E2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" xr3:uid="{13E1E655-1FD8-49DE-B54C-7B09B81CE53A}" name="B" dataDxfId="29" totalsRowDxfId="28" dataCellStyle="Normal 2">
+    <tableColumn id="1" xr3:uid="{7BB99893-51EB-4A10-9557-6750F01263C0}" name="A" dataDxfId="61" totalsRowDxfId="60">
       <calculatedColumnFormula>Data!F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6ADBBB47-99AE-4E13-BA35-19CFD129A8EB}" name="C" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Normal 2">
+    <tableColumn id="2" xr3:uid="{13E1E655-1FD8-49DE-B54C-7B09B81CE53A}" name="B" dataDxfId="59" totalsRowDxfId="58" dataCellStyle="Normal 2">
       <calculatedColumnFormula>Data!G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BA2B83DA-AF13-45EA-848C-924C117B1DE8}" name="D" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Normal 2">
+    <tableColumn id="3" xr3:uid="{6ADBBB47-99AE-4E13-BA35-19CFD129A8EB}" name="C" dataDxfId="57" totalsRowDxfId="56" dataCellStyle="Normal 2">
+      <calculatedColumnFormula>Data!H2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{BA2B83DA-AF13-45EA-848C-924C117B1DE8}" name="D" dataDxfId="55" totalsRowDxfId="54" dataCellStyle="Normal 2">
+      <calculatedColumnFormula>Data!J2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{D73F77FB-369E-48F1-9FE8-2A0434CC0718}" name="E" dataDxfId="53" totalsRowDxfId="52" dataCellStyle="Normal 2">
+      <calculatedColumnFormula>Data!K2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{DFA6AE75-7120-4EDD-938E-BC86532A3E58}" name="F" dataDxfId="51" totalsRowDxfId="50" dataCellStyle="Normal 2">
+      <calculatedColumnFormula>Data!L2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{88FB2092-F3D4-45D1-8554-911857C165A4}" name="G" dataDxfId="49" totalsRowDxfId="48" dataCellStyle="Normal 2">
+      <calculatedColumnFormula>IF(Tableau3[[#This Row],[D]]=0,0,VLOOKUP(Tableau3[[#This Row],[D]],'Barême CO2'!A:B,2,1))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{8724CED9-F994-419D-BA64-3BE334EA071A}" name="H" dataDxfId="47" totalsRowDxfId="46" dataCellStyle="Normal 2">
+      <calculatedColumnFormula>Data!P2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{A3C3AEF0-8924-4F35-890D-7A19F7A7AFDA}" name="I" dataDxfId="45" totalsRowDxfId="44" dataCellStyle="Normal 2">
+      <calculatedColumnFormula>Data!Q2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{DCB5883D-43BE-4D67-B585-8982C13D7A1B}" name="J" dataDxfId="43" totalsRowDxfId="42" dataCellStyle="Normal 2">
+      <calculatedColumnFormula>IF(Tableau3[[#This Row],[H]]=0,0,Tableau3[[#This Row],[I]]-Tableau3[[#This Row],[H]]+1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{58288CA8-6F08-47FD-B098-5277F3E9F89C}" name="J bis" dataDxfId="41" totalsRowDxfId="40" dataCellStyle="Normal 2"/>
+    <tableColumn id="12" xr3:uid="{6BAF287A-35A9-4CD1-81ED-202DC0A0C4F3}" name="K" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Pourcentage">
+      <calculatedColumnFormula>Data!M2/100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{9C7C49BC-1F75-47BF-A8C0-6BE5C493BF91}" name="L" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Pourcentage"/>
+    <tableColumn id="14" xr3:uid="{1C16A6B1-A12C-4129-BF89-43ABBC904C0B}" name="M" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="Normal 2"/>
+    <tableColumn id="15" xr3:uid="{2B030FDF-447B-4A7D-9346-30121B359CAB}" name="N" dataDxfId="33" totalsRowDxfId="32" dataCellStyle="Normal 2"/>
+    <tableColumn id="16" xr3:uid="{B35400AC-7947-428A-8C0D-49FF752BCDFC}" name="O" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30" dataCellStyle="Normal 2" totalsRowCellStyle="Monétaire">
+      <calculatedColumnFormula>Tableau3[[#This Row],[G]]*Tableau3[[#This Row],[K]]</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Tableau3[O])</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BB0C07BF-0CA3-447F-80E9-11599947465A}" name="Tableau1" displayName="Tableau1" ref="A4:O7" totalsRowCount="1" headerRowDxfId="29" dataDxfId="28" totalsRowDxfId="27" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+  <autoFilter ref="A4:O6" xr:uid="{BB0C07BF-0CA3-447F-80E9-11599947465A}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{4EF0FC66-0962-4A45-B0AD-84E1454751FF}" name="A" dataDxfId="26" totalsRowDxfId="25" dataCellStyle="Normal 2">
+      <calculatedColumnFormula>Data!F2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{697A26DD-153F-4CBF-8D55-1839C9816869}" name="B" dataDxfId="24" totalsRowDxfId="23" dataCellStyle="Normal 2">
+      <calculatedColumnFormula>Data!G2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{50EA0A43-0548-4D69-B443-625B655B6943}" name="C" dataDxfId="22" totalsRowDxfId="21" dataCellStyle="Normal 2">
+      <calculatedColumnFormula>Data!H2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{F3F170F4-4EF5-4A74-A6C6-3376A72D13D4}" name="D" dataDxfId="20" totalsRowDxfId="19" dataCellStyle="Normal 2">
       <calculatedColumnFormula>Data!I2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D73F77FB-369E-48F1-9FE8-2A0434CC0718}" name="E" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Normal 2">
-      <calculatedColumnFormula>Data!J2</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{EBDB8B7F-4036-477B-8C58-DBD3C988E7EA}" name="E" totalsRowDxfId="18" dataCellStyle="Normal 2">
+      <calculatedColumnFormula>Data!L2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{DFA6AE75-7120-4EDD-938E-BC86532A3E58}" name="F" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Normal 2">
-      <calculatedColumnFormula>Data!K2</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{FC576C55-6C94-4B61-9025-4098798C9C63}" name="F" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Normal 2">
+      <calculatedColumnFormula>IF(D5="Gazole",_xlfn.XLOOKUP(YEAR(B5),'Barème ancienneté'!A:A,'Barème ancienneté'!B:B,0,-1),_xlfn.XLOOKUP(YEAR(B5),'Barème ancienneté'!A:A,'Barème ancienneté'!C:C,0,-1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{88FB2092-F3D4-45D1-8554-911857C165A4}" name="G" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Normal 2">
-      <calculatedColumnFormula>IF(Tableau3[[#This Row],[D]]=0,0,VLOOKUP(Tableau3[[#This Row],[D]],'Barême CO2'!A:B,2,1))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{8724CED9-F994-419D-BA64-3BE334EA071A}" name="H" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Normal 2">
-      <calculatedColumnFormula>Data!O2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{A3C3AEF0-8924-4F35-890D-7A19F7A7AFDA}" name="I" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Normal 2">
+    <tableColumn id="7" xr3:uid="{716D9821-1516-4B0B-85A6-A45212974947}" name="G" totalsRowDxfId="15" dataCellStyle="Normal 2">
       <calculatedColumnFormula>Data!P2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{DCB5883D-43BE-4D67-B585-8982C13D7A1B}" name="J" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Normal 2">
-      <calculatedColumnFormula>IF(Tableau3[[#This Row],[H]]=0,0,Tableau3[[#This Row],[I]]-Tableau3[[#This Row],[H]]+1)</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{8AFDD424-D3E4-4788-B71A-42D8FB4B120C}" name="H" totalsRowDxfId="14" dataCellStyle="Normal 2">
+      <calculatedColumnFormula>Data!Q2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{58288CA8-6F08-47FD-B098-5277F3E9F89C}" name="J bis" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Normal 2"/>
-    <tableColumn id="12" xr3:uid="{6BAF287A-35A9-4CD1-81ED-202DC0A0C4F3}" name="K" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Pourcentage">
-      <calculatedColumnFormula>Data!L2/100</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{61B984BA-D33E-4E72-9BE1-6DE86243972A}" name="I" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Normal 2">
+      <calculatedColumnFormula>IF(Tableau1[[#This Row],[G]]=0,0,Tableau1[[#This Row],[H]]-Tableau1[[#This Row],[G]]+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{9C7C49BC-1F75-47BF-A8C0-6BE5C493BF91}" name="L" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Pourcentage"/>
-    <tableColumn id="14" xr3:uid="{1C16A6B1-A12C-4129-BF89-43ABBC904C0B}" name="M" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Normal 2"/>
-    <tableColumn id="15" xr3:uid="{2B030FDF-447B-4A7D-9346-30121B359CAB}" name="N" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Normal 2"/>
-    <tableColumn id="16" xr3:uid="{B35400AC-7947-428A-8C0D-49FF752BCDFC}" name="O" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Normal 2" totalsRowCellStyle="Monétaire">
-      <calculatedColumnFormula>Tableau3[[#This Row],[G]]*Tableau3[[#This Row],[K]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Tableau3[O])</totalsRowFormula>
+    <tableColumn id="10" xr3:uid="{8B2A46EF-5CA7-492A-AB87-BE56F7EE7295}" name="Ibis" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Normal 2"/>
+    <tableColumn id="11" xr3:uid="{80D2A89F-A2A0-4054-8AD3-23BF9F060569}" name="J" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Normal 2">
+      <calculatedColumnFormula>Data!M2/100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{E143D1E6-1752-4196-AA12-6E85B6E6647C}" name="K" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Normal 2"/>
+    <tableColumn id="13" xr3:uid="{001B55B5-011D-4E07-84EF-5056D6458F41}" name="L" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Normal 2"/>
+    <tableColumn id="14" xr3:uid="{CDCC8828-4315-4313-BD4A-0D7112F3E209}" name="M" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Normal 2"/>
+    <tableColumn id="15" xr3:uid="{DFAC9694-8E3F-4DFB-BD7E-D20A645B81D2}" name="N" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Normal 2" totalsRowCellStyle="Monétaire">
+      <calculatedColumnFormula>Tableau1[[#This Row],[F]]*Tableau1[[#This Row],[J]]</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Tableau1[N])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1872,67 +2592,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957171BC-E16E-43DF-AC63-34D6E52BD747}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:P1"/>
-      <selection pane="bottomLeft" sqref="A1:P1"/>
+      <selection activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16" width="13.6328125" customWidth="1"/>
+    <col min="1" max="17" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="52" customFormat="1" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="52" t="s">
+    <row r="1" spans="1:17" s="34" customFormat="1" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="D1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="E1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="F1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="G1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="H1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="I1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="J1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="K1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="L1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="M1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="N1" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="O1" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="P1" s="52" t="s">
-        <v>87</v>
+      <c r="N1" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" s="34" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1948,7 +2671,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2087,2019 +2810,2020 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897751AA-AEC8-42DA-90B9-E3EF87E570E1}">
   <dimension ref="A1:D250"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:P1"/>
+      <selection pane="bottomLeft" sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" customWidth="1"/>
-    <col min="2" max="2" width="22.90625" customWidth="1"/>
+    <col min="1" max="2" width="16.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>33</v>
+      </c>
+      <c r="B14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>36</v>
+      </c>
+      <c r="B17">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>37</v>
+      </c>
+      <c r="B18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>38</v>
+      </c>
+      <c r="B19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>39</v>
+      </c>
+      <c r="B20">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>42</v>
+      </c>
+      <c r="B23">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>43</v>
+      </c>
+      <c r="B24">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>44</v>
+      </c>
+      <c r="B25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>45</v>
+      </c>
+      <c r="B26">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>46</v>
+      </c>
+      <c r="B27">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>47</v>
+      </c>
+      <c r="B28">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>48</v>
+      </c>
+      <c r="B29">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>49</v>
+      </c>
+      <c r="B30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>50</v>
+      </c>
+      <c r="B31">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>51</v>
+      </c>
+      <c r="B32">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>52</v>
+      </c>
+      <c r="B33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>53</v>
+      </c>
+      <c r="B34">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>54</v>
+      </c>
+      <c r="B35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>55</v>
+      </c>
+      <c r="B36">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>56</v>
+      </c>
+      <c r="B37">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>57</v>
+      </c>
+      <c r="B38">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>58</v>
+      </c>
+      <c r="B39">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>59</v>
+      </c>
+      <c r="B40">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>60</v>
+      </c>
+      <c r="B41">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>61</v>
+      </c>
+      <c r="B42">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>62</v>
+      </c>
+      <c r="B43">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>63</v>
+      </c>
+      <c r="B44">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>64</v>
+      </c>
+      <c r="B45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>65</v>
+      </c>
+      <c r="B46">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>66</v>
+      </c>
+      <c r="B47">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>67</v>
+      </c>
+      <c r="B48">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>68</v>
+      </c>
+      <c r="B49">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>69</v>
+      </c>
+      <c r="B50">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>70</v>
+      </c>
+      <c r="B51">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>71</v>
+      </c>
+      <c r="B52">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>72</v>
+      </c>
+      <c r="B53">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>73</v>
+      </c>
+      <c r="B54">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>74</v>
+      </c>
+      <c r="B55">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>75</v>
+      </c>
+      <c r="B56">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>76</v>
+      </c>
+      <c r="B57">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58">
         <v>77</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B58">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59">
         <v>78</v>
       </c>
-      <c r="C1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="13">
-        <v>21</v>
-      </c>
-      <c r="B2" s="13">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="14">
-        <v>22</v>
-      </c>
-      <c r="B3" s="14">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="13">
-        <v>23</v>
-      </c>
-      <c r="B4" s="13">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="14">
-        <v>24</v>
-      </c>
-      <c r="B5" s="14">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="13">
-        <v>25</v>
-      </c>
-      <c r="B6" s="13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="14">
-        <v>26</v>
-      </c>
-      <c r="B7" s="14">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="13">
-        <v>27</v>
-      </c>
-      <c r="B8" s="13">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="14">
-        <v>28</v>
-      </c>
-      <c r="B9" s="14">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="13">
-        <v>29</v>
-      </c>
-      <c r="B10" s="13">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="14">
-        <v>30</v>
-      </c>
-      <c r="B11" s="14">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="13">
-        <v>31</v>
-      </c>
-      <c r="B12" s="13">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="14">
-        <v>32</v>
-      </c>
-      <c r="B13" s="14">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="13">
-        <v>33</v>
-      </c>
-      <c r="B14" s="13">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="14">
-        <v>34</v>
-      </c>
-      <c r="B15" s="14">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="13">
-        <v>35</v>
-      </c>
-      <c r="B16" s="13">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="14">
-        <v>36</v>
-      </c>
-      <c r="B17" s="14">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="13">
-        <v>37</v>
-      </c>
-      <c r="B18" s="13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="14">
-        <v>38</v>
-      </c>
-      <c r="B19" s="14">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="13">
-        <v>39</v>
-      </c>
-      <c r="B20" s="13">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="14">
-        <v>40</v>
-      </c>
-      <c r="B21" s="14">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="13">
-        <v>41</v>
-      </c>
-      <c r="B22" s="13">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="14">
-        <v>42</v>
-      </c>
-      <c r="B23" s="14">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="13">
-        <v>43</v>
-      </c>
-      <c r="B24" s="13">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="14">
-        <v>44</v>
-      </c>
-      <c r="B25" s="14">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="13">
-        <v>45</v>
-      </c>
-      <c r="B26" s="13">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="14">
-        <v>46</v>
-      </c>
-      <c r="B27" s="14">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="13">
-        <v>47</v>
-      </c>
-      <c r="B28" s="13">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="14">
-        <v>48</v>
-      </c>
-      <c r="B29" s="14">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="13">
-        <v>49</v>
-      </c>
-      <c r="B30" s="13">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="14">
-        <v>50</v>
-      </c>
-      <c r="B31" s="14">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="13">
-        <v>51</v>
-      </c>
-      <c r="B32" s="13">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="14">
-        <v>52</v>
-      </c>
-      <c r="B33" s="14">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="13">
-        <v>53</v>
-      </c>
-      <c r="B34" s="13">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="14">
-        <v>54</v>
-      </c>
-      <c r="B35" s="14">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="13">
-        <v>55</v>
-      </c>
-      <c r="B36" s="13">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="14">
-        <v>56</v>
-      </c>
-      <c r="B37" s="14">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="13">
-        <v>57</v>
-      </c>
-      <c r="B38" s="13">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="14">
-        <v>58</v>
-      </c>
-      <c r="B39" s="14">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="13">
-        <v>59</v>
-      </c>
-      <c r="B40" s="13">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="14">
-        <v>60</v>
-      </c>
-      <c r="B41" s="14">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="13">
-        <v>61</v>
-      </c>
-      <c r="B42" s="13">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="14">
-        <v>62</v>
-      </c>
-      <c r="B43" s="14">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="13">
-        <v>63</v>
-      </c>
-      <c r="B44" s="13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="14">
-        <v>64</v>
-      </c>
-      <c r="B45" s="14">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="13">
-        <v>65</v>
-      </c>
-      <c r="B46" s="13">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="14">
-        <v>66</v>
-      </c>
-      <c r="B47" s="14">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="13">
-        <v>67</v>
-      </c>
-      <c r="B48" s="13">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="14">
-        <v>68</v>
-      </c>
-      <c r="B49" s="14">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="13">
-        <v>69</v>
-      </c>
-      <c r="B50" s="13">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="14">
-        <v>70</v>
-      </c>
-      <c r="B51" s="14">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="14">
-        <v>71</v>
-      </c>
-      <c r="B52" s="14">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="13">
-        <v>72</v>
-      </c>
-      <c r="B53" s="13">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="14">
-        <v>73</v>
-      </c>
-      <c r="B54" s="14">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="13">
-        <v>74</v>
-      </c>
-      <c r="B55" s="13">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="14">
-        <v>75</v>
-      </c>
-      <c r="B56" s="14">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="13">
-        <v>76</v>
-      </c>
-      <c r="B57" s="13">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="14">
-        <v>77</v>
-      </c>
-      <c r="B58" s="14">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="13">
-        <v>78</v>
-      </c>
-      <c r="B59" s="13">
+      <c r="B59">
         <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="14">
+      <c r="A60">
         <v>79</v>
       </c>
-      <c r="B60" s="14">
+      <c r="B60">
         <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="13">
+      <c r="A61">
         <v>80</v>
       </c>
-      <c r="B61" s="13">
+      <c r="B61">
         <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="14">
+      <c r="A62">
         <v>81</v>
       </c>
-      <c r="B62" s="14">
+      <c r="B62">
         <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="13">
+      <c r="A63">
         <v>82</v>
       </c>
-      <c r="B63" s="13">
+      <c r="B63">
         <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="14">
+      <c r="A64">
         <v>83</v>
       </c>
-      <c r="B64" s="14">
+      <c r="B64">
         <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="13">
+      <c r="A65">
         <v>84</v>
       </c>
-      <c r="B65" s="13">
+      <c r="B65">
         <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="14">
+      <c r="A66">
         <v>85</v>
       </c>
-      <c r="B66" s="14">
+      <c r="B66">
         <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="13">
+      <c r="A67">
         <v>86</v>
       </c>
-      <c r="B67" s="13">
+      <c r="B67">
         <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="14">
+      <c r="A68">
         <v>87</v>
       </c>
-      <c r="B68" s="14">
+      <c r="B68">
         <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="13">
+      <c r="A69">
         <v>88</v>
       </c>
-      <c r="B69" s="13">
+      <c r="B69">
         <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="14">
+      <c r="A70">
         <v>89</v>
       </c>
-      <c r="B70" s="14">
+      <c r="B70">
         <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="13">
+      <c r="A71">
         <v>90</v>
       </c>
-      <c r="B71" s="13">
+      <c r="B71">
         <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="14">
+      <c r="A72">
         <v>91</v>
       </c>
-      <c r="B72" s="14">
+      <c r="B72">
         <v>137</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="13">
+      <c r="A73">
         <v>92</v>
       </c>
-      <c r="B73" s="13">
+      <c r="B73">
         <v>138</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="14">
+      <c r="A74">
         <v>93</v>
       </c>
-      <c r="B74" s="14">
+      <c r="B74">
         <v>140</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="13">
+      <c r="A75">
         <v>94</v>
       </c>
-      <c r="B75" s="13">
+      <c r="B75">
         <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="14">
+      <c r="A76">
         <v>95</v>
       </c>
-      <c r="B76" s="14">
+      <c r="B76">
         <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="13">
+      <c r="A77">
         <v>96</v>
       </c>
-      <c r="B77" s="13">
+      <c r="B77">
         <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="14">
+      <c r="A78">
         <v>97</v>
       </c>
-      <c r="B78" s="14">
+      <c r="B78">
         <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="13">
+      <c r="A79">
         <v>98</v>
       </c>
-      <c r="B79" s="13">
+      <c r="B79">
         <v>147</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="14">
+      <c r="A80">
         <v>99</v>
       </c>
-      <c r="B80" s="14">
+      <c r="B80">
         <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="13">
+      <c r="A81">
         <v>100</v>
       </c>
-      <c r="B81" s="13">
+      <c r="B81">
         <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="14">
+      <c r="A82">
         <v>101</v>
       </c>
-      <c r="B82" s="14">
+      <c r="B82">
         <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="13">
+      <c r="A83">
         <v>102</v>
       </c>
-      <c r="B83" s="13">
+      <c r="B83">
         <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="14">
+      <c r="A84">
         <v>103</v>
       </c>
-      <c r="B84" s="14">
+      <c r="B84">
         <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="13">
+      <c r="A85">
         <v>104</v>
       </c>
-      <c r="B85" s="13">
+      <c r="B85">
         <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="14">
+      <c r="A86">
         <v>105</v>
       </c>
-      <c r="B86" s="14">
+      <c r="B86">
         <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="13">
+      <c r="A87">
         <v>106</v>
       </c>
-      <c r="B87" s="13">
+      <c r="B87">
         <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="14">
+      <c r="A88">
         <v>107</v>
       </c>
-      <c r="B88" s="14">
+      <c r="B88">
         <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="13">
+      <c r="A89">
         <v>108</v>
       </c>
-      <c r="B89" s="13">
+      <c r="B89">
         <v>173</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="14">
+      <c r="A90">
         <v>109</v>
       </c>
-      <c r="B90" s="14">
+      <c r="B90">
         <v>174</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="13">
+      <c r="A91">
         <v>110</v>
       </c>
-      <c r="B91" s="13">
+      <c r="B91">
         <v>176</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" s="14">
+      <c r="A92">
         <v>111</v>
       </c>
-      <c r="B92" s="14">
+      <c r="B92">
         <v>178</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="13">
+      <c r="A93">
         <v>112</v>
       </c>
-      <c r="B93" s="13">
+      <c r="B93">
         <v>179</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="14">
+      <c r="A94">
         <v>113</v>
       </c>
-      <c r="B94" s="14">
+      <c r="B94">
         <v>181</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="13">
+      <c r="A95">
         <v>114</v>
       </c>
-      <c r="B95" s="13">
+      <c r="B95">
         <v>182</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="14">
+      <c r="A96">
         <v>115</v>
       </c>
-      <c r="B96" s="14">
+      <c r="B96">
         <v>184</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="13">
+      <c r="A97">
         <v>116</v>
       </c>
-      <c r="B97" s="13">
+      <c r="B97">
         <v>186</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="14">
+      <c r="A98">
         <v>117</v>
       </c>
-      <c r="B98" s="14">
+      <c r="B98">
         <v>187</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="13">
+      <c r="A99">
         <v>118</v>
       </c>
-      <c r="B99" s="13">
+      <c r="B99">
         <v>189</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="14">
+      <c r="A100">
         <v>119</v>
       </c>
-      <c r="B100" s="14">
+      <c r="B100">
         <v>190</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" s="13">
+      <c r="A101">
         <v>120</v>
       </c>
-      <c r="B101" s="13">
+      <c r="B101">
         <v>192</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" s="14">
+      <c r="A102">
         <v>121</v>
       </c>
-      <c r="B102" s="14">
+      <c r="B102">
         <v>194</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" s="14">
+      <c r="A103">
         <v>122</v>
       </c>
-      <c r="B103" s="14">
+      <c r="B103">
         <v>195</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" s="13">
+      <c r="A104">
         <v>123</v>
       </c>
-      <c r="B104" s="13">
+      <c r="B104">
         <v>197</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" s="14">
+      <c r="A105">
         <v>124</v>
       </c>
-      <c r="B105" s="14">
+      <c r="B105">
         <v>198</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" s="13">
+      <c r="A106">
         <v>125</v>
       </c>
-      <c r="B106" s="13">
+      <c r="B106">
         <v>200</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" s="14">
+      <c r="A107">
         <v>126</v>
       </c>
-      <c r="B107" s="14">
+      <c r="B107">
         <v>202</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" s="13">
+      <c r="A108">
         <v>127</v>
       </c>
-      <c r="B108" s="13">
+      <c r="B108">
         <v>203</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" s="14">
+      <c r="A109">
         <v>128</v>
       </c>
-      <c r="B109" s="14">
+      <c r="B109">
         <v>218</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" s="13">
+      <c r="A110">
         <v>129</v>
       </c>
-      <c r="B110" s="13">
+      <c r="B110">
         <v>232</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" s="14">
+      <c r="A111">
         <v>130</v>
       </c>
-      <c r="B111" s="14">
+      <c r="B111">
         <v>247</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" s="13">
+      <c r="A112">
         <v>131</v>
       </c>
-      <c r="B112" s="13">
+      <c r="B112">
         <v>249</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" s="14">
+      <c r="A113">
         <v>132</v>
       </c>
-      <c r="B113" s="14">
+      <c r="B113">
         <v>264</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" s="13">
+      <c r="A114">
         <v>133</v>
       </c>
-      <c r="B114" s="13">
+      <c r="B114">
         <v>266</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" s="14">
+      <c r="A115">
         <v>134</v>
       </c>
-      <c r="B115" s="14">
+      <c r="B115">
         <v>295</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" s="13">
+      <c r="A116">
         <v>135</v>
       </c>
-      <c r="B116" s="13">
+      <c r="B116">
         <v>311</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" s="14">
+      <c r="A117">
         <v>136</v>
       </c>
-      <c r="B117" s="14">
+      <c r="B117">
         <v>326</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A118" s="13">
+      <c r="A118">
         <v>137</v>
       </c>
-      <c r="B118" s="13">
+      <c r="B118">
         <v>343</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119" s="14">
+      <c r="A119">
         <v>138</v>
       </c>
-      <c r="B119" s="14">
+      <c r="B119">
         <v>359</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120" s="13">
+      <c r="A120">
         <v>139</v>
       </c>
-      <c r="B120" s="13">
+      <c r="B120">
         <v>375</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A121" s="14">
+      <c r="A121">
         <v>140</v>
       </c>
-      <c r="B121" s="14">
+      <c r="B121">
         <v>392</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A122" s="13">
+      <c r="A122">
         <v>141</v>
       </c>
-      <c r="B122" s="13">
+      <c r="B122">
         <v>409</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123" s="14">
+      <c r="A123">
         <v>142</v>
       </c>
-      <c r="B123" s="14">
+      <c r="B123">
         <v>426</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A124" s="13">
+      <c r="A124">
         <v>143</v>
       </c>
-      <c r="B124" s="13">
+      <c r="B124">
         <v>443</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A125" s="14">
+      <c r="A125">
         <v>144</v>
       </c>
-      <c r="B125" s="14">
+      <c r="B125">
         <v>461</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A126" s="13">
+      <c r="A126">
         <v>145</v>
       </c>
-      <c r="B126" s="13">
+      <c r="B126">
         <v>479</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A127" s="14">
+      <c r="A127">
         <v>146</v>
       </c>
-      <c r="B127" s="14">
+      <c r="B127">
         <v>482</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A128" s="13">
+      <c r="A128">
         <v>147</v>
       </c>
-      <c r="B128" s="13">
+      <c r="B128">
         <v>500</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A129" s="14">
+      <c r="A129">
         <v>148</v>
       </c>
-      <c r="B129" s="14">
+      <c r="B129">
         <v>518</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A130" s="13">
+      <c r="A130">
         <v>149</v>
       </c>
-      <c r="B130" s="13">
+      <c r="B130">
         <v>551</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A131" s="14">
+      <c r="A131">
         <v>150</v>
       </c>
-      <c r="B131" s="14">
+      <c r="B131">
         <v>600</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A132" s="13">
+      <c r="A132">
         <v>151</v>
       </c>
-      <c r="B132" s="13">
+      <c r="B132">
         <v>664</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A133" s="14">
+      <c r="A133">
         <v>152</v>
       </c>
-      <c r="B133" s="14">
+      <c r="B133">
         <v>730</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A134" s="13">
+      <c r="A134">
         <v>153</v>
       </c>
-      <c r="B134" s="13">
+      <c r="B134">
         <v>796</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A135" s="14">
+      <c r="A135">
         <v>154</v>
       </c>
-      <c r="B135" s="14">
+      <c r="B135">
         <v>847</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A136" s="13">
+      <c r="A136">
         <v>155</v>
       </c>
-      <c r="B136" s="13">
+      <c r="B136">
         <v>899</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A137" s="14">
+      <c r="A137">
         <v>156</v>
       </c>
-      <c r="B137" s="14">
+      <c r="B137">
         <v>952</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A138" s="13">
+      <c r="A138">
         <v>157</v>
       </c>
-      <c r="B138" s="15">
+      <c r="B138">
         <v>1005</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A139" s="14">
+      <c r="A139">
         <v>158</v>
       </c>
-      <c r="B139" s="16">
+      <c r="B139">
         <v>1059</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A140" s="13">
+      <c r="A140">
         <v>159</v>
       </c>
-      <c r="B140" s="15">
+      <c r="B140">
         <v>1113</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A141" s="14">
+      <c r="A141">
         <v>160</v>
       </c>
-      <c r="B141" s="16">
+      <c r="B141">
         <v>1168</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A142" s="13">
+      <c r="A142">
         <v>161</v>
       </c>
-      <c r="B142" s="15">
+      <c r="B142">
         <v>1224</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A143" s="14">
+      <c r="A143">
         <v>162</v>
       </c>
-      <c r="B143" s="16">
+      <c r="B143">
         <v>1280</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A144" s="13">
+      <c r="A144">
         <v>163</v>
       </c>
-      <c r="B144" s="15">
+      <c r="B144">
         <v>1337</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A145" s="14">
+      <c r="A145">
         <v>164</v>
       </c>
-      <c r="B145" s="16">
+      <c r="B145">
         <v>1394</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A146" s="13">
+      <c r="A146">
         <v>165</v>
       </c>
-      <c r="B146" s="15">
+      <c r="B146">
         <v>1452</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A147" s="14">
+      <c r="A147">
         <v>166</v>
       </c>
-      <c r="B147" s="16">
+      <c r="B147">
         <v>1511</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A148" s="13">
+      <c r="A148">
         <v>167</v>
       </c>
-      <c r="B148" s="15">
+      <c r="B148">
         <v>1570</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A149" s="14">
+      <c r="A149">
         <v>168</v>
       </c>
-      <c r="B149" s="16">
+      <c r="B149">
         <v>1630</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A150" s="13">
+      <c r="A150">
         <v>169</v>
       </c>
-      <c r="B150" s="15">
+      <c r="B150">
         <v>1690</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A151" s="14">
+      <c r="A151">
         <v>170</v>
       </c>
-      <c r="B151" s="16">
+      <c r="B151">
         <v>1751</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A152" s="13">
+      <c r="A152">
         <v>171</v>
       </c>
-      <c r="B152" s="15">
+      <c r="B152">
         <v>1813</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A153" s="14">
+      <c r="A153">
         <v>172</v>
       </c>
-      <c r="B153" s="16">
+      <c r="B153">
         <v>1875</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A154" s="14">
+      <c r="A154">
         <v>173</v>
       </c>
-      <c r="B154" s="16">
+      <c r="B154">
         <v>1938</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A155" s="13">
+      <c r="A155">
         <v>174</v>
       </c>
-      <c r="B155" s="15">
+      <c r="B155">
         <v>2001</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A156" s="14">
+      <c r="A156">
         <v>175</v>
       </c>
-      <c r="B156" s="16">
+      <c r="B156">
         <v>2065</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A157" s="13">
+      <c r="A157">
         <v>176</v>
       </c>
-      <c r="B157" s="15">
+      <c r="B157">
         <v>2130</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A158" s="14">
+      <c r="A158">
         <v>177</v>
       </c>
-      <c r="B158" s="16">
+      <c r="B158">
         <v>2195</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A159" s="13">
+      <c r="A159">
         <v>178</v>
       </c>
-      <c r="B159" s="15">
+      <c r="B159">
         <v>2261</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A160" s="14">
+      <c r="A160">
         <v>179</v>
       </c>
-      <c r="B160" s="16">
+      <c r="B160">
         <v>2327</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A161" s="13">
+      <c r="A161">
         <v>180</v>
       </c>
-      <c r="B161" s="15">
+      <c r="B161">
         <v>2394</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A162" s="14">
+      <c r="A162">
         <v>181</v>
       </c>
-      <c r="B162" s="16">
+      <c r="B162">
         <v>2480</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A163" s="13">
+      <c r="A163">
         <v>182</v>
       </c>
-      <c r="B163" s="15">
+      <c r="B163">
         <v>2548</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A164" s="14">
+      <c r="A164">
         <v>183</v>
       </c>
-      <c r="B164" s="16">
+      <c r="B164">
         <v>2617</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A165" s="13">
+      <c r="A165">
         <v>184</v>
       </c>
-      <c r="B165" s="15">
+      <c r="B165">
         <v>2686</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A166" s="14">
+      <c r="A166">
         <v>185</v>
       </c>
-      <c r="B166" s="16">
+      <c r="B166">
         <v>2757</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A167" s="13">
+      <c r="A167">
         <v>186</v>
       </c>
-      <c r="B167" s="15">
+      <c r="B167">
         <v>2827</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A168" s="14">
+      <c r="A168">
         <v>187</v>
       </c>
-      <c r="B168" s="16">
+      <c r="B168">
         <v>2899</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A169" s="13">
+      <c r="A169">
         <v>188</v>
       </c>
-      <c r="B169" s="15">
+      <c r="B169">
         <v>2970</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A170" s="14">
+      <c r="A170">
         <v>189</v>
       </c>
-      <c r="B170" s="16">
+      <c r="B170">
         <v>3043</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A171" s="13">
+      <c r="A171">
         <v>190</v>
       </c>
-      <c r="B171" s="15">
+      <c r="B171">
         <v>3116</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A172" s="14">
+      <c r="A172">
         <v>191</v>
       </c>
-      <c r="B172" s="16">
+      <c r="B172">
         <v>3190</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A173" s="13">
+      <c r="A173">
         <v>192</v>
       </c>
-      <c r="B173" s="15">
+      <c r="B173">
         <v>3264</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A174" s="14">
+      <c r="A174">
         <v>193</v>
       </c>
-      <c r="B174" s="16">
+      <c r="B174">
         <v>3300</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A175" s="13">
+      <c r="A175">
         <v>194</v>
       </c>
-      <c r="B175" s="15">
+      <c r="B175">
         <v>3337</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A176" s="14">
+      <c r="A176">
         <v>195</v>
       </c>
-      <c r="B176" s="16">
+      <c r="B176">
         <v>3374</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A177" s="13">
+      <c r="A177">
         <v>196</v>
       </c>
-      <c r="B177" s="15">
+      <c r="B177">
         <v>3410</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A178" s="14">
+      <c r="A178">
         <v>197</v>
       </c>
-      <c r="B178" s="16">
+      <c r="B178">
         <v>3448</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A179" s="13">
+      <c r="A179">
         <v>198</v>
       </c>
-      <c r="B179" s="15">
+      <c r="B179">
         <v>3485</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A180" s="14">
+      <c r="A180">
         <v>199</v>
       </c>
-      <c r="B180" s="16">
+      <c r="B180">
         <v>3522</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A181" s="13">
+      <c r="A181">
         <v>200</v>
       </c>
-      <c r="B181" s="15">
+      <c r="B181">
         <v>3580</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A182" s="14">
+      <c r="A182">
         <v>201</v>
       </c>
-      <c r="B182" s="16">
+      <c r="B182">
         <v>3618</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A183" s="13">
+      <c r="A183">
         <v>202</v>
       </c>
-      <c r="B183" s="15">
+      <c r="B183">
         <v>3676</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A184" s="14">
+      <c r="A184">
         <v>203</v>
       </c>
-      <c r="B184" s="16">
+      <c r="B184">
         <v>3735</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A185" s="13">
+      <c r="A185">
         <v>204</v>
       </c>
-      <c r="B185" s="15">
+      <c r="B185">
         <v>3774</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A186" s="14">
+      <c r="A186">
         <v>205</v>
       </c>
-      <c r="B186" s="16">
+      <c r="B186">
         <v>3813</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A187" s="13">
+      <c r="A187">
         <v>206</v>
       </c>
-      <c r="B187" s="15">
+      <c r="B187">
         <v>3852</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A188" s="14">
+      <c r="A188">
         <v>207</v>
       </c>
-      <c r="B188" s="16">
+      <c r="B188">
         <v>3892</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A189" s="13">
+      <c r="A189">
         <v>208</v>
       </c>
-      <c r="B189" s="15">
+      <c r="B189">
         <v>3952</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A190" s="14">
+      <c r="A190">
         <v>209</v>
       </c>
-      <c r="B190" s="16">
+      <c r="B190">
         <v>3992</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A191" s="13">
+      <c r="A191">
         <v>210</v>
       </c>
-      <c r="B191" s="15">
+      <c r="B191">
         <v>4032</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A192" s="14">
+      <c r="A192">
         <v>211</v>
       </c>
-      <c r="B192" s="16">
+      <c r="B192">
         <v>4072</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A193" s="13">
+      <c r="A193">
         <v>212</v>
       </c>
-      <c r="B193" s="15">
+      <c r="B193">
         <v>4113</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A194" s="14">
+      <c r="A194">
         <v>213</v>
       </c>
-      <c r="B194" s="16">
+      <c r="B194">
         <v>4175</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A195" s="13">
+      <c r="A195">
         <v>214</v>
       </c>
-      <c r="B195" s="15">
+      <c r="B195">
         <v>4216</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A196" s="14">
+      <c r="A196">
         <v>215</v>
       </c>
-      <c r="B196" s="16">
+      <c r="B196">
         <v>4257</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A197" s="13">
+      <c r="A197">
         <v>216</v>
       </c>
-      <c r="B197" s="15">
+      <c r="B197">
         <v>4298</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A198" s="14">
+      <c r="A198">
         <v>217</v>
       </c>
-      <c r="B198" s="16">
+      <c r="B198">
         <v>4340</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A199" s="13">
+      <c r="A199">
         <v>218</v>
       </c>
-      <c r="B199" s="15">
+      <c r="B199">
         <v>4404</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A200" s="14">
+      <c r="A200">
         <v>219</v>
       </c>
-      <c r="B200" s="16">
+      <c r="B200">
         <v>4446</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A201" s="13">
+      <c r="A201">
         <v>220</v>
       </c>
-      <c r="B201" s="15">
+      <c r="B201">
         <v>4488</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A202" s="14">
+      <c r="A202">
         <v>221</v>
       </c>
-      <c r="B202" s="16">
+      <c r="B202">
         <v>4531</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A203" s="13">
+      <c r="A203">
         <v>222</v>
       </c>
-      <c r="B203" s="15">
+      <c r="B203">
         <v>4573</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A204" s="14">
+      <c r="A204">
         <v>223</v>
       </c>
-      <c r="B204" s="16">
+      <c r="B204">
         <v>4638</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A205" s="14">
+      <c r="A205">
         <v>224</v>
       </c>
-      <c r="B205" s="16">
+      <c r="B205">
         <v>4682</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A206" s="13">
+      <c r="A206">
         <v>225</v>
       </c>
-      <c r="B206" s="15">
+      <c r="B206">
         <v>4725</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A207" s="14">
+      <c r="A207">
         <v>226</v>
       </c>
-      <c r="B207" s="16">
+      <c r="B207">
         <v>4769</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A208" s="13">
+      <c r="A208">
         <v>227</v>
       </c>
-      <c r="B208" s="15">
+      <c r="B208">
         <v>4812</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A209" s="14">
+      <c r="A209">
         <v>228</v>
       </c>
-      <c r="B209" s="16">
+      <c r="B209">
         <v>4880</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A210" s="13">
+      <c r="A210">
         <v>229</v>
       </c>
-      <c r="B210" s="15">
+      <c r="B210">
         <v>4924</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A211" s="14">
+      <c r="A211">
         <v>230</v>
       </c>
-      <c r="B211" s="16">
+      <c r="B211">
         <v>4968</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A212" s="13">
+      <c r="A212">
         <v>231</v>
       </c>
-      <c r="B212" s="15">
+      <c r="B212">
         <v>5036</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A213" s="14">
+      <c r="A213">
         <v>232</v>
       </c>
-      <c r="B213" s="16">
+      <c r="B213">
         <v>5081</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A214" s="13">
+      <c r="A214">
         <v>233</v>
       </c>
-      <c r="B214" s="15">
+      <c r="B214">
         <v>5150</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A215" s="14">
+      <c r="A215">
         <v>234</v>
       </c>
-      <c r="B215" s="16">
+      <c r="B215">
         <v>5218</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A216" s="13">
+      <c r="A216">
         <v>235</v>
       </c>
-      <c r="B216" s="15">
+      <c r="B216">
         <v>5288</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A217" s="14">
+      <c r="A217">
         <v>236</v>
       </c>
-      <c r="B217" s="16">
+      <c r="B217">
         <v>5334</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A218" s="13">
+      <c r="A218">
         <v>237</v>
       </c>
-      <c r="B218" s="15">
+      <c r="B218">
         <v>5404</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A219" s="14">
+      <c r="A219">
         <v>238</v>
       </c>
-      <c r="B219" s="16">
+      <c r="B219">
         <v>5474</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A220" s="13">
+      <c r="A220">
         <v>239</v>
       </c>
-      <c r="B220" s="15">
+      <c r="B220">
         <v>5521</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A221" s="14">
+      <c r="A221">
         <v>240</v>
       </c>
-      <c r="B221" s="16">
+      <c r="B221">
         <v>5592</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A222" s="13">
+      <c r="A222">
         <v>241</v>
       </c>
-      <c r="B222" s="15">
+      <c r="B222">
         <v>5664</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A223" s="14">
+      <c r="A223">
         <v>242</v>
       </c>
-      <c r="B223" s="16">
+      <c r="B223">
         <v>5735</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A224" s="13">
+      <c r="A224">
         <v>243</v>
       </c>
-      <c r="B224" s="15">
+      <c r="B224">
         <v>5783</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A225" s="14">
+      <c r="A225">
         <v>244</v>
       </c>
-      <c r="B225" s="16">
+      <c r="B225">
         <v>5856</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A226" s="13">
+      <c r="A226">
         <v>245</v>
       </c>
-      <c r="B226" s="15">
+      <c r="B226">
         <v>5929</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A227" s="14">
+      <c r="A227">
         <v>246</v>
       </c>
-      <c r="B227" s="16">
+      <c r="B227">
         <v>6002</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A228" s="13">
+      <c r="A228">
         <v>247</v>
       </c>
-      <c r="B228" s="15">
+      <c r="B228">
         <v>6052</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A229" s="14">
+      <c r="A229">
         <v>248</v>
       </c>
-      <c r="B229" s="16">
+      <c r="B229">
         <v>6126</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A230" s="13">
+      <c r="A230">
         <v>249</v>
       </c>
-      <c r="B230" s="15">
+      <c r="B230">
         <v>6200</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A231" s="14">
+      <c r="A231">
         <v>250</v>
       </c>
-      <c r="B231" s="16">
+      <c r="B231">
         <v>6250</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A232" s="13">
+      <c r="A232">
         <v>251</v>
       </c>
-      <c r="B232" s="15">
+      <c r="B232">
         <v>6325</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A233" s="14">
+      <c r="A233">
         <v>252</v>
       </c>
-      <c r="B233" s="16">
+      <c r="B233">
         <v>6401</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A234" s="13">
+      <c r="A234">
         <v>253</v>
       </c>
-      <c r="B234" s="15">
+      <c r="B234">
         <v>6477</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A235" s="14">
+      <c r="A235">
         <v>254</v>
       </c>
-      <c r="B235" s="16">
+      <c r="B235">
         <v>6528</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A236" s="13">
+      <c r="A236">
         <v>255</v>
       </c>
-      <c r="B236" s="15">
+      <c r="B236">
         <v>6605</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A237" s="14">
+      <c r="A237">
         <v>256</v>
       </c>
-      <c r="B237" s="16">
+      <c r="B237">
         <v>6682</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A238" s="13">
+      <c r="A238">
         <v>257</v>
       </c>
-      <c r="B238" s="15">
+      <c r="B238">
         <v>6733</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A239" s="14">
+      <c r="A239">
         <v>258</v>
       </c>
-      <c r="B239" s="16">
+      <c r="B239">
         <v>6811</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A240" s="13">
+      <c r="A240">
         <v>259</v>
       </c>
-      <c r="B240" s="15">
+      <c r="B240">
         <v>6889</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A241" s="14">
+      <c r="A241">
         <v>260</v>
       </c>
-      <c r="B241" s="16">
+      <c r="B241">
         <v>6968</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A242" s="13">
+      <c r="A242">
         <v>261</v>
       </c>
-      <c r="B242" s="15">
+      <c r="B242">
         <v>7047</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A243" s="14">
+      <c r="A243">
         <v>262</v>
       </c>
-      <c r="B243" s="16">
+      <c r="B243">
         <v>7126</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A244" s="13">
+      <c r="A244">
         <v>263</v>
       </c>
-      <c r="B244" s="15">
+      <c r="B244">
         <v>7206</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A245" s="14">
+      <c r="A245">
         <v>264</v>
       </c>
-      <c r="B245" s="16">
+      <c r="B245">
         <v>7286</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A246" s="13">
+      <c r="A246">
         <v>265</v>
       </c>
-      <c r="B246" s="15">
+      <c r="B246">
         <v>7367</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A247" s="14">
+      <c r="A247">
         <v>266</v>
       </c>
-      <c r="B247" s="16">
+      <c r="B247">
         <v>7448</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A248" s="13">
+      <c r="A248">
         <v>267</v>
       </c>
-      <c r="B248" s="15">
+      <c r="B248">
         <v>7529</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A249" s="14">
+      <c r="A249">
         <v>268</v>
       </c>
-      <c r="B249" s="16">
+      <c r="B249">
         <v>7638</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A250" s="13">
+      <c r="A250">
         <v>269</v>
       </c>
-      <c r="B250" s="15">
+      <c r="B250">
         <v>7747</v>
       </c>
     </row>
@@ -4108,6 +4832,9 @@
     <hyperlink ref="D1" r:id="rId1" display="https://www.legifrance.gouv.fr/codes/article_lc/LEGIARTI000044602983" xr:uid="{81A21971-88A9-4BC2-86EE-5F787B78641A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -4116,17 +4843,19 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:P1"/>
+      <selection pane="bottomLeft" sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" t="s">
-        <v>91</v>
+    <row r="1" spans="1:2" s="34" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -4141,7 +4870,7 @@
       <c r="A3">
         <v>15001</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="35">
         <v>0.25</v>
       </c>
     </row>
@@ -4149,7 +4878,7 @@
       <c r="A4">
         <v>25001</v>
       </c>
-      <c r="B4" s="59">
+      <c r="B4" s="35">
         <v>0.5</v>
       </c>
     </row>
@@ -4157,7 +4886,7 @@
       <c r="A5">
         <v>35001</v>
       </c>
-      <c r="B5" s="59">
+      <c r="B5" s="35">
         <v>0.45</v>
       </c>
     </row>
@@ -4165,12 +4894,15 @@
       <c r="A6">
         <v>45001</v>
       </c>
-      <c r="B6" s="59">
+      <c r="B6" s="35">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -4179,20 +4911,22 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:P1"/>
+      <selection pane="bottomLeft" sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" s="52" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="52" t="s">
-        <v>89</v>
+    <row r="1" spans="1:3" s="34" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -4215,7 +4949,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="62">
+      <c r="A4">
         <v>2006</v>
       </c>
       <c r="B4">
@@ -4249,6 +4983,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -4259,309 +4996,314 @@
   </sheetPr>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" style="32"/>
-    <col min="2" max="3" width="15.7265625" style="25"/>
-    <col min="4" max="4" width="15.7265625" style="38"/>
-    <col min="5" max="5" width="15.7265625" style="50"/>
-    <col min="6" max="7" width="15.7265625" style="19"/>
-    <col min="8" max="9" width="15.7265625" style="25"/>
-    <col min="10" max="11" width="15.7265625" style="19"/>
-    <col min="12" max="13" width="15.7265625" style="20"/>
-    <col min="14" max="15" width="15.7265625" style="19"/>
-    <col min="16" max="16" width="15.7265625" style="44"/>
-    <col min="17" max="16384" width="15.7265625" style="21"/>
+    <col min="1" max="1" width="12.6328125" style="20" customWidth="1"/>
+    <col min="2" max="3" width="12.6328125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="32" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="27" customWidth="1"/>
+    <col min="8" max="9" width="12.6328125" style="14" customWidth="1"/>
+    <col min="10" max="11" width="12.6328125" style="9" customWidth="1"/>
+    <col min="12" max="13" width="12.6328125" style="10" customWidth="1"/>
+    <col min="14" max="15" width="12.6328125" style="9" customWidth="1"/>
+    <col min="16" max="16" width="12.6328125" style="27" customWidth="1"/>
+    <col min="17" max="16384" width="15.7265625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="8" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="33">
+    <row r="1" spans="1:16" s="6" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="68">
         <f>Data!A2</f>
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="55" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="P1" s="45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="64">
+        <f>Data!B2</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="H2" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="67"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="P1" s="43"/>
-    </row>
-    <row r="2" spans="1:16" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="34" t="str">
-        <f>'Report Metadata'!B3</f>
-        <v>01/01/22..31/12/22</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="H2" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="K2" s="56"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="O2" s="56"/>
-    </row>
-    <row r="3" spans="1:16" s="24" customFormat="1" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="29" t="s">
+      <c r="O2" s="67"/>
+    </row>
+    <row r="3" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="N3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="22" t="s">
+      <c r="O3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="P3" s="45" t="s">
+      <c r="P3" s="54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:16" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="22" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="L4" s="17" t="s">
+      <c r="K4" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="42" t="s">
+      <c r="M4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="N4" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="O4" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="46" t="s">
+      <c r="P4" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="51">
-        <f>Data!E2</f>
-        <v>0</v>
-      </c>
-      <c r="B5" s="25">
+      <c r="A5" s="38">
         <f>Data!F2</f>
         <v>0</v>
       </c>
-      <c r="C5" s="25">
+      <c r="B5" s="14">
         <f>Data!G2</f>
         <v>0</v>
       </c>
-      <c r="D5" s="19">
-        <f>Data!I2</f>
+      <c r="C5" s="14">
+        <f>Data!H2</f>
         <v>0</v>
       </c>
-      <c r="E5" s="19">
+      <c r="D5" s="9">
         <f>Data!J2</f>
         <v>0</v>
       </c>
-      <c r="F5" s="19">
+      <c r="E5" s="24">
         <f>Data!K2</f>
         <v>0</v>
       </c>
-      <c r="G5" s="19">
+      <c r="F5" s="9">
+        <f>Data!L2</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="27">
         <f>IF(Tableau3[[#This Row],[D]]=0,0,VLOOKUP(Tableau3[[#This Row],[D]],'Barême CO2'!A:B,2,1))</f>
         <v>0</v>
       </c>
-      <c r="H5" s="25">
-        <f>Data!O2</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="25">
+      <c r="H5" s="14">
         <f>Data!P2</f>
         <v>0</v>
       </c>
-      <c r="J5" s="19">
+      <c r="I5" s="14">
+        <f>Data!Q2</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
         <f>IF(Tableau3[[#This Row],[H]]=0,0,Tableau3[[#This Row],[I]]-Tableau3[[#This Row],[H]]+1)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="20">
-        <f>Data!L2/100</f>
+      <c r="L5" s="10">
+        <f>Data!M2/100</f>
         <v>0</v>
       </c>
-      <c r="P5" s="47">
+      <c r="P5" s="30">
         <f>Tableau3[[#This Row],[G]]*Tableau3[[#This Row],[K]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="51">
-        <f>Data!E3</f>
-        <v>0</v>
-      </c>
-      <c r="B6" s="25">
+      <c r="A6" s="38">
         <f>Data!F3</f>
         <v>0</v>
       </c>
-      <c r="C6" s="25">
+      <c r="B6" s="14">
         <f>Data!G3</f>
         <v>0</v>
       </c>
-      <c r="D6" s="19">
-        <f>Data!I3</f>
+      <c r="C6" s="14">
+        <f>Data!H3</f>
         <v>0</v>
       </c>
-      <c r="E6" s="19">
+      <c r="D6" s="9">
         <f>Data!J3</f>
         <v>0</v>
       </c>
-      <c r="F6" s="19">
+      <c r="E6" s="24">
         <f>Data!K3</f>
         <v>0</v>
       </c>
-      <c r="G6" s="19">
+      <c r="F6" s="9">
+        <f>Data!L3</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="27">
         <f>IF(Tableau3[[#This Row],[D]]=0,0,VLOOKUP(Tableau3[[#This Row],[D]],'Barême CO2'!A:B,2,1))</f>
         <v>0</v>
       </c>
-      <c r="H6" s="25">
-        <f>Data!O3</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="25">
+      <c r="H6" s="14">
         <f>Data!P3</f>
         <v>0</v>
       </c>
-      <c r="J6" s="19">
+      <c r="I6" s="14">
+        <f>Data!Q3</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
         <f>IF(Tableau3[[#This Row],[H]]=0,0,Tableau3[[#This Row],[I]]-Tableau3[[#This Row],[H]]+1)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="20">
-        <f>Data!L3/100</f>
+      <c r="L6" s="10">
+        <f>Data!M3/100</f>
         <v>0</v>
       </c>
-      <c r="P6" s="47">
+      <c r="P6" s="30">
         <f>Tableau3[[#This Row],[G]]*Tableau3[[#This Row],[K]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="48" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="39"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="49">
+    <row r="7" spans="1:16" s="31" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="17"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="55">
         <f>SUM(Tableau3[O])</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="31"/>
+      <c r="A8" s="19"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="31"/>
+      <c r="A9" s="19"/>
     </row>
   </sheetData>
   <sheetProtection autoFilter="0"/>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="D1:M1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F&amp;R&amp;P</oddFooter>
+  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -4570,184 +5312,303 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3965F3-D149-4451-A68D-3862368B16E1}">
-  <dimension ref="A1:O6"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F6"/>
-    </sheetView>
+    <sheetView showZeros="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="15.6328125" style="2"/>
+    <col min="1" max="3" width="12.6328125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="15.6328125" style="2"/>
+    <col min="6" max="6" width="15.6328125" style="50"/>
+    <col min="7" max="14" width="12.6328125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.6328125" style="50"/>
+    <col min="16" max="16384" width="15.6328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-    </row>
-    <row r="2" spans="1:15" s="6" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="57" t="s">
+    <row r="1" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="68">
+        <f>Data!A2</f>
+        <v>0</v>
+      </c>
+      <c r="C1" s="68"/>
+      <c r="D1" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="64">
+        <f>Data!B2</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="67"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="67"/>
+      <c r="O2" s="48"/>
+    </row>
+    <row r="3" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" s="57"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="N2" s="57"/>
-      <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:15" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="J4" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="49" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B5" s="60">
-        <v>40544</v>
-      </c>
-      <c r="D5" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="2">
+    <row r="5" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="33">
+        <f>Data!F2</f>
+        <v>0</v>
+      </c>
+      <c r="B5" s="14">
+        <f>Data!G2</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="14">
+        <f>Data!H2</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="42">
+        <f>Data!I2</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="46">
+        <f>Data!L2</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="44">
         <f>IF(D5="Gazole",_xlfn.XLOOKUP(YEAR(B5),'Barème ancienneté'!A:A,'Barème ancienneté'!B:B,0,-1),_xlfn.XLOOKUP(YEAR(B5),'Barème ancienneté'!A:A,'Barème ancienneté'!C:C,0,-1))</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B6" s="60">
-        <v>43831</v>
-      </c>
-      <c r="D6" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14">
+        <f>Data!P2</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="14">
+        <f>Data!Q2</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <f>IF(Tableau1[[#This Row],[G]]=0,0,Tableau1[[#This Row],[H]]-Tableau1[[#This Row],[G]]+1)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="10">
+        <f>Data!M2/100</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="30">
+        <f>Tableau1[[#This Row],[F]]*Tableau1[[#This Row],[J]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="33">
+        <f>Data!F3</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="14">
+        <f>Data!G3</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="14">
+        <f>Data!H3</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="42">
+        <f>Data!I3</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <f>Data!L3</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="44">
         <f>IF(D6="Gazole",_xlfn.XLOOKUP(YEAR(B6),'Barème ancienneté'!A:A,'Barème ancienneté'!B:B,0,-1),_xlfn.XLOOKUP(YEAR(B6),'Barème ancienneté'!A:A,'Barème ancienneté'!C:C,0,-1))</f>
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="G6" s="43">
+        <f>Data!P3</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="43">
+        <f>Data!Q3</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <f>IF(Tableau1[[#This Row],[G]]=0,0,Tableau1[[#This Row],[H]]-Tableau1[[#This Row],[G]]+1)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="59">
+        <f>Data!M3/100</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="59"/>
+      <c r="O6" s="44">
+        <f>Tableau1[[#This Row],[F]]*Tableau1[[#This Row],[J]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="55">
+        <f>SUM(Tableau1[N])</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:O1"/>
+  <mergeCells count="5">
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="M2:N2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:L1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F&amp;R&amp;P</oddFooter>
+  </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>